--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/word_level_predictions_17.xlsx
@@ -502,208 +502,208 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mode</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14681,11 +14681,11 @@
         </is>
       </c>
       <c r="I274" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K274" s="2" t="b">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14733,11 +14733,11 @@
         </is>
       </c>
       <c r="I275" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J275" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="F276" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G276" s="2" t="b">
@@ -14785,11 +14785,11 @@
         </is>
       </c>
       <c r="I276" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K276" s="2" t="b">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="L276" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/17/word_level_predictions_17.xlsx
@@ -502,208 +502,208 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="b">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Attitude</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Attitude</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -14681,11 +14681,11 @@
         </is>
       </c>
       <c r="I274" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K274" s="2" t="b">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="F275" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G275" s="2" t="b">
@@ -14733,11 +14733,11 @@
         </is>
       </c>
       <c r="I275" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K275" s="2" t="b">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="L275" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="F276" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G276" s="2" t="b">
@@ -14785,11 +14785,11 @@
         </is>
       </c>
       <c r="I276" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K276" s="2" t="b">
@@ -14797,7 +14797,7 @@
       </c>
       <c r="L276" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
